--- a/V2/Project Outputs for Badge_V2/Fabrication/BOM/PCB-00001-01_BOM-Badge_V2.xlsx
+++ b/V2/Project Outputs for Badge_V2/Fabrication/BOM/PCB-00001-01_BOM-Badge_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradf\AppData\Local\TempReleases\Snapshot\1\Fabrication\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F137101E-B218-42ED-9F00-95D81F91AB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF53047D-B2C0-4F27-9929-E8D2440A79EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{30461A13-555D-46EB-BD60-FD1DD34F6651}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{2F4D133E-BC34-4EDD-9D76-DE2C0059B63C}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB-00001-01_BOM-Badge_V2" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E4A48-0E3F-4904-BEC1-DCA89664D9EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F2644-5169-4D95-97AD-6B8CBD796802}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
